--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMButenko\Desktop\Слушатель LINQ\REFramework_Queue-main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMButenko\Desktop\Слушатель LINQ\Generate-Yearly-Report-PIX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311B8ED-B94C-4BAE-A68D-7F394A846E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFD4C3A-15CF-45D9-885F-418A147BEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Имя</t>
   </si>
@@ -75,18 +75,6 @@
     <t>Начало темы письма</t>
   </si>
   <si>
-    <t>PathRequest</t>
-  </si>
-  <si>
-    <t>IN\Request.xlsx</t>
-  </si>
-  <si>
-    <t>Путь до файла с входными данными</t>
-  </si>
-  <si>
-    <t>RpaChallengeURL</t>
-  </si>
-  <si>
     <t>URL сайта, где заносятся данные</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>* (Если Тип не указан, значение запишется напрямую в словарь dict_config)</t>
   </si>
   <si>
-    <t>RpaChallengeFileURL</t>
-  </si>
-  <si>
     <t>AuthCredentials</t>
   </si>
   <si>
@@ -151,6 +136,12 @@
   </si>
   <si>
     <t>d.butenko2001@mail.ru</t>
+  </si>
+  <si>
+    <t>System1_URL</t>
+  </si>
+  <si>
+    <t>System1_DowloadURL</t>
   </si>
 </sst>
 </file>
@@ -564,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -594,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -628,24 +619,24 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -657,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -669,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -677,32 +668,41 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2023</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -711,16 +711,16 @@
         <v>27</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -728,78 +728,60 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9">
-        <v>2023</v>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="17" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>37</v>
-      </c>
+    <row r="18" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,13 +1253,13 @@
       <c r="D188" s="7"/>
     </row>
     <row r="189" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D189" s="7"/>
+      <c r="D189" s="3"/>
     </row>
     <row r="190" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D190" s="7"/>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D191" s="7"/>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
@@ -2325,23 +2307,14 @@
     </row>
     <row r="540" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D540" s="3"/>
-    </row>
-    <row r="541" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D541" s="3"/>
-    </row>
-    <row r="542" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D542" s="3"/>
-    </row>
-    <row r="543" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D543" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D192:D543" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D189:D540" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"AuthCredentials,SecureData,Text"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D191" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D188" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"AuthCredentials,SecureData,Text,WinCred,Path,PathMaster"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2394,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
